--- a/eias/sheer_rocks/data_raw/Sheer rocks_surveys.xlsx
+++ b/eias/sheer_rocks/data_raw/Sheer rocks_surveys.xlsx
@@ -454,7 +454,7 @@
     <t>Sargassum spp.</t>
   </si>
   <si>
-    <t>Sponge</t>
+    <t>Sponge other</t>
   </si>
   <si>
     <t>Sponges &amp; soft coral</t>
@@ -1600,7 +1600,7 @@
     <t>Parrotfish (juvenile)</t>
   </si>
   <si>
-    <t>Sparisoma spp.</t>
+    <t>Sparisoma spp. juv.</t>
   </si>
   <si>
     <t>rsil</t>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H12" s="6" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(E13,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H13" s="6" t="str">
         <f>VLOOKUP(E13,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H18" s="6" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H30" s="6" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3721,7 +3721,7 @@
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H33" s="6" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge</v>
+        <v>Sponge other</v>
       </c>
       <c r="H38" s="6" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="F32" s="8" t="str">
         <f>VLOOKUP(B32,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>Sparisoma spp.</v>
+        <v>Sparisoma spp. juv.</v>
       </c>
       <c r="G32" s="8" t="str">
         <f>VLOOKUP(B32,lookups_fish!$A$2:$I$200,4,0)</f>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F44" s="8" t="str">
         <f>VLOOKUP(B43,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>Sparisoma spp.</v>
+        <v>Sparisoma spp. juv.</v>
       </c>
       <c r="G44" s="8" t="str">
         <f>VLOOKUP(B43,lookups_fish!$A$2:$I$200,4,0)</f>

--- a/eias/sheer_rocks/data_raw/Sheer rocks_surveys.xlsx
+++ b/eias/sheer_rocks/data_raw/Sheer rocks_surveys.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="557">
   <si>
     <t>Date</t>
   </si>
@@ -202,13 +202,13 @@
     <t>San</t>
   </si>
   <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>hs</t>
-  </si>
-  <si>
-    <t>hw</t>
+    <t>sfil</t>
+  </si>
+  <si>
+    <t>hsti</t>
+  </si>
+  <si>
+    <t>hwri</t>
   </si>
   <si>
     <t>hal</t>
@@ -217,7 +217,7 @@
     <t>san</t>
   </si>
   <si>
-    <t>tt</t>
+    <t>ttes</t>
   </si>
   <si>
     <t>pen</t>
@@ -304,6 +304,9 @@
     <t>sgf</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>SAN</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
     <t>Bare substrate</t>
   </si>
   <si>
+    <t>Native</t>
+  </si>
+  <si>
     <t>HB</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
     <t>Halophila stipulacea</t>
   </si>
   <si>
+    <t>Invasive</t>
+  </si>
+  <si>
     <t>HAL</t>
   </si>
   <si>
@@ -454,16 +463,10 @@
     <t>Sargassum spp.</t>
   </si>
   <si>
-    <t>Sponge other</t>
-  </si>
-  <si>
     <t>Sponges &amp; soft coral</t>
   </si>
   <si>
     <t>GOR</t>
-  </si>
-  <si>
-    <t>Gorgonian</t>
   </si>
   <si>
     <t>Stony coral</t>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="G5" s="6" t="str">
         <f>VLOOKUP(E5,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Cliona varians</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H5" s="6" t="str">
         <f>VLOOKUP(E5,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3105,7 +3108,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f>VLOOKUP(E11,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Tedania ignis</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H11" s="6" t="str">
         <f>VLOOKUP(E11,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3133,7 +3136,7 @@
       </c>
       <c r="G12" s="6" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H12" s="6" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3161,7 +3164,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f>VLOOKUP(E13,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H13" s="6" t="str">
         <f>VLOOKUP(E13,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3273,7 +3276,7 @@
       </c>
       <c r="G17" s="6" t="str">
         <f>VLOOKUP(E17,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Tedania ignis</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H17" s="6" t="str">
         <f>VLOOKUP(E17,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3301,7 +3304,7 @@
       </c>
       <c r="G18" s="6" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H18" s="6" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3441,7 +3444,7 @@
       </c>
       <c r="G23" s="6" t="str">
         <f>VLOOKUP(E23,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Cliona varians</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H23" s="6" t="str">
         <f>VLOOKUP(E23,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3469,7 +3472,7 @@
       </c>
       <c r="G24" s="6" t="str">
         <f>VLOOKUP(E24,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Tedania ignis</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H24" s="6" t="str">
         <f>VLOOKUP(E24,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3637,7 +3640,7 @@
       </c>
       <c r="G30" s="6" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H30" s="6" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3665,7 +3668,7 @@
       </c>
       <c r="G31" s="6" t="str">
         <f>VLOOKUP(E31,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Tedania ignis</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H31" s="6" t="str">
         <f>VLOOKUP(E31,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3721,7 +3724,7 @@
       </c>
       <c r="G33" s="6" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H33" s="6" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3833,7 +3836,7 @@
       </c>
       <c r="G37" s="6" t="str">
         <f>VLOOKUP(E37,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Cliona varians</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H37" s="6" t="str">
         <f>VLOOKUP(E37,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3861,7 +3864,7 @@
       </c>
       <c r="G38" s="6" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Sponge other</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H38" s="6" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="G41" s="6" t="str">
         <f>VLOOKUP(E41,lookups_benthic!$A$2:$C$202,2,0)</f>
-        <v>Cliona varians</v>
+        <v>Encrusting sponge</v>
       </c>
       <c r="H41" s="6" t="str">
         <f>VLOOKUP(E41,lookups_benthic!$A$2:$C$202,3,0)</f>
@@ -4073,11 +4076,11 @@
       </c>
       <c r="G3" s="8" t="str">
         <f>VLOOKUP(E3,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H3" s="8" t="str">
         <f>VLOOKUP(E3,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="4">
@@ -4101,11 +4104,11 @@
       </c>
       <c r="G4" s="8" t="str">
         <f>VLOOKUP(E4,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halophila stipulacea</v>
       </c>
       <c r="H4" s="8" t="str">
         <f>VLOOKUP(E4,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="5">
@@ -4129,11 +4132,11 @@
       </c>
       <c r="G5" s="8" t="str">
         <f>VLOOKUP(E5,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halophila stipulacea</v>
       </c>
       <c r="H5" s="8" t="str">
         <f>VLOOKUP(E5,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="6">
@@ -4157,11 +4160,11 @@
       </c>
       <c r="G6" s="8" t="str">
         <f>VLOOKUP(E6,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H6" s="8" t="str">
         <f>VLOOKUP(E6,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="7">
@@ -4185,11 +4188,11 @@
       </c>
       <c r="G7" s="8" t="str">
         <f>VLOOKUP(E7,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H7" s="8" t="str">
         <f>VLOOKUP(E7,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="8">
@@ -4269,11 +4272,11 @@
       </c>
       <c r="G10" s="8" t="str">
         <f>VLOOKUP(E10,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H10" s="8" t="str">
         <f>VLOOKUP(E10,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="11">
@@ -4297,11 +4300,11 @@
       </c>
       <c r="G11" s="8" t="str">
         <f>VLOOKUP(E11,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H11" s="8" t="str">
         <f>VLOOKUP(E11,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="12">
@@ -4325,11 +4328,11 @@
       </c>
       <c r="G12" s="8" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H12" s="8" t="str">
         <f>VLOOKUP(E12,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="13">
@@ -4409,11 +4412,11 @@
       </c>
       <c r="G15" s="8" t="str">
         <f>VLOOKUP(E15,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H15" s="8" t="str">
         <f>VLOOKUP(E15,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="16">
@@ -4465,11 +4468,11 @@
       </c>
       <c r="G17" s="8" t="str">
         <f>VLOOKUP(E17,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H17" s="8" t="str">
         <f>VLOOKUP(E17,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="18">
@@ -4493,11 +4496,11 @@
       </c>
       <c r="G18" s="8" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H18" s="8" t="str">
         <f>VLOOKUP(E18,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="19">
@@ -4549,11 +4552,11 @@
       </c>
       <c r="G20" s="8" t="str">
         <f>VLOOKUP(E20,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H20" s="8" t="str">
         <f>VLOOKUP(E20,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="21">
@@ -4577,11 +4580,11 @@
       </c>
       <c r="G21" s="8" t="str">
         <f>VLOOKUP(E21,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H21" s="8" t="str">
         <f>VLOOKUP(E21,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="22">
@@ -4661,11 +4664,11 @@
       </c>
       <c r="G24" s="8" t="str">
         <f>VLOOKUP(E24,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H24" s="8" t="str">
         <f>VLOOKUP(E24,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="25">
@@ -4689,11 +4692,11 @@
       </c>
       <c r="G25" s="8" t="str">
         <f>VLOOKUP(E25,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H25" s="8" t="str">
         <f>VLOOKUP(E25,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="26">
@@ -4745,11 +4748,11 @@
       </c>
       <c r="G27" s="8" t="str">
         <f>VLOOKUP(E27,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H27" s="8" t="str">
         <f>VLOOKUP(E27,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="28">
@@ -4773,11 +4776,11 @@
       </c>
       <c r="G28" s="8" t="str">
         <f>VLOOKUP(E28,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H28" s="8" t="str">
         <f>VLOOKUP(E28,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="29">
@@ -4829,11 +4832,11 @@
       </c>
       <c r="G30" s="8" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H30" s="8" t="str">
         <f>VLOOKUP(E30,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="31">
@@ -4913,11 +4916,11 @@
       </c>
       <c r="G33" s="8" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H33" s="8" t="str">
         <f>VLOOKUP(E33,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="34">
@@ -4941,11 +4944,11 @@
       </c>
       <c r="G34" s="8" t="str">
         <f>VLOOKUP(E34,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H34" s="8" t="str">
         <f>VLOOKUP(E34,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="35">
@@ -4969,11 +4972,11 @@
       </c>
       <c r="G35" s="8" t="str">
         <f>VLOOKUP(E35,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H35" s="8" t="str">
         <f>VLOOKUP(E35,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="36">
@@ -4997,11 +5000,11 @@
       </c>
       <c r="G36" s="8" t="str">
         <f>VLOOKUP(E36,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H36" s="8" t="str">
         <f>VLOOKUP(E36,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="37">
@@ -5053,11 +5056,11 @@
       </c>
       <c r="G38" s="8" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H38" s="8" t="str">
         <f>VLOOKUP(E38,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="39">
@@ -5081,11 +5084,11 @@
       </c>
       <c r="G39" s="8" t="str">
         <f>VLOOKUP(E39,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H39" s="8" t="str">
         <f>VLOOKUP(E39,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="40">
@@ -5137,11 +5140,11 @@
       </c>
       <c r="G41" s="8" t="str">
         <f>VLOOKUP(E41,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H41" s="8" t="str">
         <f>VLOOKUP(E41,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="42">
@@ -5165,11 +5168,11 @@
       </c>
       <c r="G42" s="8" t="str">
         <f>VLOOKUP(E42,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H42" s="8" t="str">
         <f>VLOOKUP(E42,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="43">
@@ -5221,11 +5224,11 @@
       </c>
       <c r="G44" s="8" t="str">
         <f>VLOOKUP(E44,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H44" s="8" t="str">
         <f>VLOOKUP(E44,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="45">
@@ -5305,11 +5308,11 @@
       </c>
       <c r="G47" s="8" t="str">
         <f>VLOOKUP(E47,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H47" s="8" t="str">
         <f>VLOOKUP(E47,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="48">
@@ -5361,11 +5364,11 @@
       </c>
       <c r="G49" s="8" t="str">
         <f>VLOOKUP(E49,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H49" s="8" t="str">
         <f>VLOOKUP(E49,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="50">
@@ -5417,11 +5420,11 @@
       </c>
       <c r="G51" s="8" t="str">
         <f>VLOOKUP(E51,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H51" s="8" t="str">
         <f>VLOOKUP(E51,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="52">
@@ -5445,11 +5448,11 @@
       </c>
       <c r="G52" s="8" t="str">
         <f>VLOOKUP(E52,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H52" s="8" t="str">
         <f>VLOOKUP(E52,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="53">
@@ -5473,11 +5476,11 @@
       </c>
       <c r="G53" s="8" t="str">
         <f>VLOOKUP(E53,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H53" s="8" t="str">
         <f>VLOOKUP(E53,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="54">
@@ -5557,11 +5560,11 @@
       </c>
       <c r="G56" s="8" t="str">
         <f>VLOOKUP(E56,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H56" s="8" t="str">
         <f>VLOOKUP(E56,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="57">
@@ -5641,11 +5644,11 @@
       </c>
       <c r="G59" s="8" t="str">
         <f>VLOOKUP(E59,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H59" s="8" t="str">
         <f>VLOOKUP(E59,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="60">
@@ -5697,11 +5700,11 @@
       </c>
       <c r="G61" s="8" t="str">
         <f>VLOOKUP(E61,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H61" s="8" t="str">
         <f>VLOOKUP(E61,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="62">
@@ -5725,11 +5728,11 @@
       </c>
       <c r="G62" s="8" t="str">
         <f>VLOOKUP(E62,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H62" s="8" t="str">
         <f>VLOOKUP(E62,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="63">
@@ -5753,11 +5756,11 @@
       </c>
       <c r="G63" s="8" t="str">
         <f>VLOOKUP(E63,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H63" s="8" t="str">
         <f>VLOOKUP(E63,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="64">
@@ -5781,11 +5784,11 @@
       </c>
       <c r="G64" s="8" t="str">
         <f>VLOOKUP(E64,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H64" s="8" t="str">
         <f>VLOOKUP(E64,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="65">
@@ -5809,11 +5812,11 @@
       </c>
       <c r="G65" s="8" t="str">
         <f>VLOOKUP(E65,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H65" s="8" t="str">
         <f>VLOOKUP(E65,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="66">
@@ -5837,11 +5840,11 @@
       </c>
       <c r="G66" s="8" t="str">
         <f>VLOOKUP(E66,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H66" s="8" t="str">
         <f>VLOOKUP(E66,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="67">
@@ -5949,11 +5952,11 @@
       </c>
       <c r="G70" s="8" t="str">
         <f>VLOOKUP(E70,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H70" s="8" t="str">
         <f>VLOOKUP(E70,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="71">
@@ -5977,11 +5980,11 @@
       </c>
       <c r="G71" s="8" t="str">
         <f>VLOOKUP(E71,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H71" s="8" t="str">
         <f>VLOOKUP(E71,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="72">
@@ -6005,11 +6008,11 @@
       </c>
       <c r="G72" s="8" t="str">
         <f>VLOOKUP(E72,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H72" s="8" t="str">
         <f>VLOOKUP(E72,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="73">
@@ -6033,11 +6036,11 @@
       </c>
       <c r="G73" s="8" t="str">
         <f>VLOOKUP(E73,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H73" s="8" t="str">
         <f>VLOOKUP(E73,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="74">
@@ -6061,11 +6064,11 @@
       </c>
       <c r="G74" s="8" t="str">
         <f>VLOOKUP(E74,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H74" s="8" t="str">
         <f>VLOOKUP(E74,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="75">
@@ -6089,11 +6092,11 @@
       </c>
       <c r="G75" s="8" t="str">
         <f>VLOOKUP(E75,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H75" s="8" t="str">
         <f>VLOOKUP(E75,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="76">
@@ -6145,11 +6148,11 @@
       </c>
       <c r="G77" s="8" t="str">
         <f>VLOOKUP(E77,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H77" s="8" t="str">
         <f>VLOOKUP(E77,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="78">
@@ -6173,11 +6176,11 @@
       </c>
       <c r="G78" s="8" t="str">
         <f>VLOOKUP(E78,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H78" s="8" t="str">
         <f>VLOOKUP(E78,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="79">
@@ -6229,11 +6232,11 @@
       </c>
       <c r="G80" s="8" t="str">
         <f>VLOOKUP(E80,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H80" s="8" t="str">
         <f>VLOOKUP(E80,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="81">
@@ -6257,11 +6260,11 @@
       </c>
       <c r="G81" s="8" t="str">
         <f>VLOOKUP(E81,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H81" s="8" t="str">
         <f>VLOOKUP(E81,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="82">
@@ -6285,11 +6288,11 @@
       </c>
       <c r="G82" s="8" t="str">
         <f>VLOOKUP(E82,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H82" s="8" t="str">
         <f>VLOOKUP(E82,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="83">
@@ -6313,11 +6316,11 @@
       </c>
       <c r="G83" s="8" t="str">
         <f>VLOOKUP(E83,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H83" s="8" t="str">
         <f>VLOOKUP(E83,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="84">
@@ -6341,11 +6344,11 @@
       </c>
       <c r="G84" s="8" t="str">
         <f>VLOOKUP(E84,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H84" s="8" t="str">
         <f>VLOOKUP(E84,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="85">
@@ -6369,11 +6372,11 @@
       </c>
       <c r="G85" s="8" t="str">
         <f>VLOOKUP(E85,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H85" s="8" t="str">
         <f>VLOOKUP(E85,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="86">
@@ -6425,11 +6428,11 @@
       </c>
       <c r="G87" s="8" t="str">
         <f>VLOOKUP(E87,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H87" s="8" t="str">
         <f>VLOOKUP(E87,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="88">
@@ -6453,11 +6456,11 @@
       </c>
       <c r="G88" s="8" t="str">
         <f>VLOOKUP(E88,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H88" s="8" t="str">
         <f>VLOOKUP(E88,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="89">
@@ -6509,11 +6512,11 @@
       </c>
       <c r="G90" s="8" t="str">
         <f>VLOOKUP(E90,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H90" s="8" t="str">
         <f>VLOOKUP(E90,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="91">
@@ -6537,11 +6540,11 @@
       </c>
       <c r="G91" s="8" t="str">
         <f>VLOOKUP(E91,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H91" s="8" t="str">
         <f>VLOOKUP(E91,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="92">
@@ -6565,11 +6568,11 @@
       </c>
       <c r="G92" s="8" t="str">
         <f>VLOOKUP(E92,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H92" s="8" t="str">
         <f>VLOOKUP(E92,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="93">
@@ -6593,11 +6596,11 @@
       </c>
       <c r="G93" s="8" t="str">
         <f>VLOOKUP(E93,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H93" s="8" t="str">
         <f>VLOOKUP(E93,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="94">
@@ -6621,11 +6624,11 @@
       </c>
       <c r="G94" s="8" t="str">
         <f>VLOOKUP(E94,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H94" s="8" t="str">
         <f>VLOOKUP(E94,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="95">
@@ -6649,11 +6652,11 @@
       </c>
       <c r="G95" s="8" t="str">
         <f>VLOOKUP(E95,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H95" s="8" t="str">
         <f>VLOOKUP(E95,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="96">
@@ -6677,11 +6680,11 @@
       </c>
       <c r="G96" s="8" t="str">
         <f>VLOOKUP(E96,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H96" s="8" t="str">
         <f>VLOOKUP(E96,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="97">
@@ -6705,11 +6708,11 @@
       </c>
       <c r="G97" s="8" t="str">
         <f>VLOOKUP(E97,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H97" s="8" t="str">
         <f>VLOOKUP(E97,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="98">
@@ -6761,11 +6764,11 @@
       </c>
       <c r="G99" s="8" t="str">
         <f>VLOOKUP(E99,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H99" s="8" t="str">
         <f>VLOOKUP(E99,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="100">
@@ -6817,11 +6820,11 @@
       </c>
       <c r="G101" s="8" t="str">
         <f>VLOOKUP(E101,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H101" s="8" t="str">
         <f>VLOOKUP(E101,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="102">
@@ -6901,11 +6904,11 @@
       </c>
       <c r="G104" s="8" t="str">
         <f>VLOOKUP(E104,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H104" s="8" t="str">
         <f>VLOOKUP(E104,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="105">
@@ -6929,11 +6932,11 @@
       </c>
       <c r="G105" s="8" t="str">
         <f>VLOOKUP(E105,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H105" s="8" t="str">
         <f>VLOOKUP(E105,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="106">
@@ -6985,11 +6988,11 @@
       </c>
       <c r="G107" s="8" t="str">
         <f>VLOOKUP(E107,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H107" s="8" t="str">
         <f>VLOOKUP(E107,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="108">
@@ -7013,11 +7016,11 @@
       </c>
       <c r="G108" s="8" t="str">
         <f>VLOOKUP(E108,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H108" s="8" t="str">
         <f>VLOOKUP(E108,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="109">
@@ -7069,11 +7072,11 @@
       </c>
       <c r="G110" s="8" t="str">
         <f>VLOOKUP(E110,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H110" s="8" t="str">
         <f>VLOOKUP(E110,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="111">
@@ -7209,11 +7212,11 @@
       </c>
       <c r="G115" s="8" t="str">
         <f>VLOOKUP(E115,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H115" s="8" t="str">
         <f>VLOOKUP(E115,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="116">
@@ -7265,11 +7268,11 @@
       </c>
       <c r="G117" s="8" t="str">
         <f>VLOOKUP(E117,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H117" s="8" t="str">
         <f>VLOOKUP(E117,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="118">
@@ -7293,11 +7296,11 @@
       </c>
       <c r="G118" s="8" t="str">
         <f>VLOOKUP(E118,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H118" s="8" t="str">
         <f>VLOOKUP(E118,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="119">
@@ -7321,11 +7324,11 @@
       </c>
       <c r="G119" s="8" t="str">
         <f>VLOOKUP(E119,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H119" s="8" t="str">
         <f>VLOOKUP(E119,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="120">
@@ -7377,11 +7380,11 @@
       </c>
       <c r="G121" s="8" t="str">
         <f>VLOOKUP(E121,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H121" s="8" t="str">
         <f>VLOOKUP(E121,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="122">
@@ -7433,11 +7436,11 @@
       </c>
       <c r="G123" s="8" t="str">
         <f>VLOOKUP(E123,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H123" s="8" t="str">
         <f>VLOOKUP(E123,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="124">
@@ -7461,11 +7464,11 @@
       </c>
       <c r="G124" s="8" t="str">
         <f>VLOOKUP(E124,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H124" s="8" t="str">
         <f>VLOOKUP(E124,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="125">
@@ -7489,11 +7492,11 @@
       </c>
       <c r="G125" s="8" t="str">
         <f>VLOOKUP(E125,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H125" s="8" t="str">
         <f>VLOOKUP(E125,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="126">
@@ -7629,11 +7632,11 @@
       </c>
       <c r="G130" s="8" t="str">
         <f>VLOOKUP(E130,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H130" s="8" t="str">
         <f>VLOOKUP(E130,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="131">
@@ -7657,11 +7660,11 @@
       </c>
       <c r="G131" s="8" t="str">
         <f>VLOOKUP(E131,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H131" s="8" t="str">
         <f>VLOOKUP(E131,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="132">
@@ -7685,11 +7688,11 @@
       </c>
       <c r="G132" s="8" t="str">
         <f>VLOOKUP(E132,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H132" s="8" t="str">
         <f>VLOOKUP(E132,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="133">
@@ -7713,11 +7716,11 @@
       </c>
       <c r="G133" s="8" t="str">
         <f>VLOOKUP(E133,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H133" s="8" t="str">
         <f>VLOOKUP(E133,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="134">
@@ -7769,11 +7772,11 @@
       </c>
       <c r="G135" s="8" t="str">
         <f>VLOOKUP(E135,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H135" s="8" t="str">
         <f>VLOOKUP(E135,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="136">
@@ -7797,11 +7800,11 @@
       </c>
       <c r="G136" s="8" t="str">
         <f>VLOOKUP(E136,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H136" s="8" t="str">
         <f>VLOOKUP(E136,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="137">
@@ -7853,11 +7856,11 @@
       </c>
       <c r="G138" s="8" t="str">
         <f>VLOOKUP(E138,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H138" s="8" t="str">
         <f>VLOOKUP(E138,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="139">
@@ -7881,11 +7884,11 @@
       </c>
       <c r="G139" s="8" t="str">
         <f>VLOOKUP(E139,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H139" s="8" t="str">
         <f>VLOOKUP(E139,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="140">
@@ -7937,11 +7940,11 @@
       </c>
       <c r="G141" s="8" t="str">
         <f>VLOOKUP(E141,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halophila stipulacea</v>
       </c>
       <c r="H141" s="8" t="str">
         <f>VLOOKUP(E141,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="142">
@@ -8049,11 +8052,11 @@
       </c>
       <c r="G145" s="8" t="str">
         <f>VLOOKUP(E145,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H145" s="8" t="str">
         <f>VLOOKUP(E145,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="146">
@@ -8077,11 +8080,11 @@
       </c>
       <c r="G146" s="8" t="str">
         <f>VLOOKUP(E146,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H146" s="8" t="str">
         <f>VLOOKUP(E146,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="147">
@@ -8105,11 +8108,11 @@
       </c>
       <c r="G147" s="8" t="str">
         <f>VLOOKUP(E147,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H147" s="8" t="str">
         <f>VLOOKUP(E147,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="148">
@@ -8161,11 +8164,11 @@
       </c>
       <c r="G149" s="8" t="str">
         <f>VLOOKUP(E149,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H149" s="8" t="str">
         <f>VLOOKUP(E149,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="150">
@@ -8189,11 +8192,11 @@
       </c>
       <c r="G150" s="8" t="str">
         <f>VLOOKUP(E150,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H150" s="8" t="str">
         <f>VLOOKUP(E150,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="151">
@@ -8273,11 +8276,11 @@
       </c>
       <c r="G153" s="8" t="str">
         <f>VLOOKUP(E153,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H153" s="8" t="str">
         <f>VLOOKUP(E153,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="154">
@@ -8357,11 +8360,11 @@
       </c>
       <c r="G156" s="8" t="str">
         <f>VLOOKUP(E156,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H156" s="8" t="str">
         <f>VLOOKUP(E156,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="157">
@@ -8385,11 +8388,11 @@
       </c>
       <c r="G157" s="8" t="str">
         <f>VLOOKUP(E157,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H157" s="8" t="str">
         <f>VLOOKUP(E157,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="158">
@@ -8413,11 +8416,11 @@
       </c>
       <c r="G158" s="8" t="str">
         <f>VLOOKUP(E158,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H158" s="8" t="str">
         <f>VLOOKUP(E158,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="159">
@@ -8525,11 +8528,11 @@
       </c>
       <c r="G162" s="8" t="str">
         <f>VLOOKUP(E162,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H162" s="8" t="str">
         <f>VLOOKUP(E162,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="163">
@@ -8553,11 +8556,11 @@
       </c>
       <c r="G163" s="8" t="str">
         <f>VLOOKUP(E163,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H163" s="8" t="str">
         <f>VLOOKUP(E163,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="164">
@@ -8609,11 +8612,11 @@
       </c>
       <c r="G165" s="8" t="str">
         <f>VLOOKUP(E165,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H165" s="8" t="str">
         <f>VLOOKUP(E165,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="166">
@@ -8637,11 +8640,11 @@
       </c>
       <c r="G166" s="8" t="str">
         <f>VLOOKUP(E166,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H166" s="8" t="str">
         <f>VLOOKUP(E166,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="167">
@@ -8665,11 +8668,11 @@
       </c>
       <c r="G167" s="8" t="str">
         <f>VLOOKUP(E167,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H167" s="8" t="str">
         <f>VLOOKUP(E167,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="168">
@@ -8693,11 +8696,11 @@
       </c>
       <c r="G168" s="8" t="str">
         <f>VLOOKUP(E168,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H168" s="8" t="str">
         <f>VLOOKUP(E168,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="169">
@@ -8721,11 +8724,11 @@
       </c>
       <c r="G169" s="8" t="str">
         <f>VLOOKUP(E169,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H169" s="8" t="str">
         <f>VLOOKUP(E169,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="170">
@@ -8749,11 +8752,11 @@
       </c>
       <c r="G170" s="8" t="str">
         <f>VLOOKUP(E170,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H170" s="8" t="str">
         <f>VLOOKUP(E170,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="171">
@@ -8833,11 +8836,11 @@
       </c>
       <c r="G173" s="8" t="str">
         <f>VLOOKUP(E173,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H173" s="8" t="str">
         <f>VLOOKUP(E173,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="174">
@@ -8861,11 +8864,11 @@
       </c>
       <c r="G174" s="8" t="str">
         <f>VLOOKUP(E174,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H174" s="8" t="str">
         <f>VLOOKUP(E174,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="175">
@@ -8945,11 +8948,11 @@
       </c>
       <c r="G177" s="8" t="str">
         <f>VLOOKUP(E177,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H177" s="8" t="str">
         <f>VLOOKUP(E177,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="178">
@@ -9001,11 +9004,11 @@
       </c>
       <c r="G179" s="8" t="str">
         <f>VLOOKUP(E179,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H179" s="8" t="str">
         <f>VLOOKUP(E179,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="180">
@@ -9085,11 +9088,11 @@
       </c>
       <c r="G182" s="8" t="str">
         <f>VLOOKUP(E182,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H182" s="8" t="str">
         <f>VLOOKUP(E182,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="183">
@@ -9141,11 +9144,11 @@
       </c>
       <c r="G184" s="8" t="str">
         <f>VLOOKUP(E184,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H184" s="8" t="str">
         <f>VLOOKUP(E184,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="185">
@@ -9197,11 +9200,11 @@
       </c>
       <c r="G186" s="8" t="str">
         <f>VLOOKUP(E186,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H186" s="8" t="str">
         <f>VLOOKUP(E186,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="187">
@@ -9309,11 +9312,11 @@
       </c>
       <c r="G190" s="8" t="str">
         <f>VLOOKUP(E190,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H190" s="8" t="str">
         <f>VLOOKUP(E190,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="191">
@@ -9365,11 +9368,11 @@
       </c>
       <c r="G192" s="8" t="str">
         <f>VLOOKUP(E192,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H192" s="8" t="str">
         <f>VLOOKUP(E192,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="193">
@@ -9421,11 +9424,11 @@
       </c>
       <c r="G194" s="8" t="str">
         <f>VLOOKUP(E194,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H194" s="8" t="str">
         <f>VLOOKUP(E194,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="195">
@@ -9477,11 +9480,11 @@
       </c>
       <c r="G196" s="8" t="str">
         <f>VLOOKUP(E196,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H196" s="8" t="str">
         <f>VLOOKUP(E196,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="197">
@@ -9505,11 +9508,11 @@
       </c>
       <c r="G197" s="8" t="str">
         <f>VLOOKUP(E197,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H197" s="8" t="str">
         <f>VLOOKUP(E197,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="198">
@@ -9589,11 +9592,11 @@
       </c>
       <c r="G200" s="8" t="str">
         <f>VLOOKUP(E200,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H200" s="8" t="str">
         <f>VLOOKUP(E200,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="201">
@@ -9617,11 +9620,11 @@
       </c>
       <c r="G201" s="8" t="str">
         <f>VLOOKUP(E201,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H201" s="8" t="str">
         <f>VLOOKUP(E201,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="202">
@@ -9673,11 +9676,11 @@
       </c>
       <c r="G203" s="8" t="str">
         <f>VLOOKUP(E203,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H203" s="8" t="str">
         <f>VLOOKUP(E203,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="204">
@@ -9701,11 +9704,11 @@
       </c>
       <c r="G204" s="8" t="str">
         <f>VLOOKUP(E204,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H204" s="8" t="str">
         <f>VLOOKUP(E204,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="205">
@@ -9757,11 +9760,11 @@
       </c>
       <c r="G206" s="8" t="str">
         <f>VLOOKUP(E206,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H206" s="8" t="str">
         <f>VLOOKUP(E206,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="207">
@@ -9785,11 +9788,11 @@
       </c>
       <c r="G207" s="8" t="str">
         <f>VLOOKUP(E207,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H207" s="8" t="str">
         <f>VLOOKUP(E207,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="208">
@@ -9813,11 +9816,11 @@
       </c>
       <c r="G208" s="8" t="str">
         <f>VLOOKUP(E208,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H208" s="8" t="str">
         <f>VLOOKUP(E208,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="209">
@@ -9841,11 +9844,11 @@
       </c>
       <c r="G209" s="8" t="str">
         <f>VLOOKUP(E209,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H209" s="8" t="str">
         <f>VLOOKUP(E209,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="210">
@@ -9897,11 +9900,11 @@
       </c>
       <c r="G211" s="8" t="str">
         <f>VLOOKUP(E211,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H211" s="8" t="str">
         <f>VLOOKUP(E211,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="212">
@@ -9981,11 +9984,11 @@
       </c>
       <c r="G214" s="8" t="str">
         <f>VLOOKUP(E214,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H214" s="8" t="str">
         <f>VLOOKUP(E214,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="215">
@@ -10009,11 +10012,11 @@
       </c>
       <c r="G215" s="8" t="str">
         <f>VLOOKUP(E215,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H215" s="8" t="str">
         <f>VLOOKUP(E215,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="216">
@@ -10037,11 +10040,11 @@
       </c>
       <c r="G216" s="8" t="str">
         <f>VLOOKUP(E216,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H216" s="8" t="str">
         <f>VLOOKUP(E216,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="217">
@@ -10093,11 +10096,11 @@
       </c>
       <c r="G218" s="8" t="str">
         <f>VLOOKUP(E218,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H218" s="8" t="str">
         <f>VLOOKUP(E218,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="219">
@@ -10121,11 +10124,11 @@
       </c>
       <c r="G219" s="8" t="str">
         <f>VLOOKUP(E219,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H219" s="8" t="str">
         <f>VLOOKUP(E219,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="220">
@@ -10177,11 +10180,11 @@
       </c>
       <c r="G221" s="8" t="str">
         <f>VLOOKUP(E221,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H221" s="8" t="str">
         <f>VLOOKUP(E221,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="222">
@@ -10205,11 +10208,11 @@
       </c>
       <c r="G222" s="8" t="str">
         <f>VLOOKUP(E222,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H222" s="8" t="str">
         <f>VLOOKUP(E222,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="223">
@@ -10289,11 +10292,11 @@
       </c>
       <c r="G225" s="8" t="str">
         <f>VLOOKUP(E225,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H225" s="8" t="str">
         <f>VLOOKUP(E225,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="226">
@@ -10317,11 +10320,11 @@
       </c>
       <c r="G226" s="8" t="str">
         <f>VLOOKUP(E226,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H226" s="8" t="str">
         <f>VLOOKUP(E226,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="227">
@@ -10373,11 +10376,11 @@
       </c>
       <c r="G228" s="8" t="str">
         <f>VLOOKUP(E228,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H228" s="8" t="str">
         <f>VLOOKUP(E228,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="229">
@@ -10457,11 +10460,11 @@
       </c>
       <c r="G231" s="8" t="str">
         <f>VLOOKUP(E231,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H231" s="8" t="str">
         <f>VLOOKUP(E231,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="232">
@@ -10485,11 +10488,11 @@
       </c>
       <c r="G232" s="8" t="str">
         <f>VLOOKUP(E232,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H232" s="8" t="str">
         <f>VLOOKUP(E232,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="233">
@@ -10541,11 +10544,11 @@
       </c>
       <c r="G234" s="8" t="str">
         <f>VLOOKUP(E234,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H234" s="8" t="str">
         <f>VLOOKUP(E234,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="235">
@@ -10569,11 +10572,11 @@
       </c>
       <c r="G235" s="8" t="str">
         <f>VLOOKUP(E235,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Halodule wrightii</v>
       </c>
       <c r="H235" s="8" t="str">
         <f>VLOOKUP(E235,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="236">
@@ -10597,11 +10600,11 @@
       </c>
       <c r="G236" s="8" t="str">
         <f>VLOOKUP(E236,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H236" s="8" t="str">
         <f>VLOOKUP(E236,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="237">
@@ -10653,11 +10656,11 @@
       </c>
       <c r="G238" s="8" t="str">
         <f>VLOOKUP(E238,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H238" s="8" t="str">
         <f>VLOOKUP(E238,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="239">
@@ -10709,11 +10712,11 @@
       </c>
       <c r="G240" s="8" t="str">
         <f>VLOOKUP(E240,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H240" s="8" t="str">
         <f>VLOOKUP(E240,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="241">
@@ -10765,11 +10768,11 @@
       </c>
       <c r="G242" s="8" t="str">
         <f>VLOOKUP(E242,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H242" s="8" t="str">
         <f>VLOOKUP(E242,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="243">
@@ -10821,11 +10824,11 @@
       </c>
       <c r="G244" s="8" t="str">
         <f>VLOOKUP(E244,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H244" s="8" t="str">
         <f>VLOOKUP(E244,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="245">
@@ -10905,11 +10908,11 @@
       </c>
       <c r="G247" s="8" t="str">
         <f>VLOOKUP(E247,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H247" s="8" t="str">
         <f>VLOOKUP(E247,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="248">
@@ -10961,11 +10964,11 @@
       </c>
       <c r="G249" s="8" t="str">
         <f>VLOOKUP(E249,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H249" s="8" t="str">
         <f>VLOOKUP(E249,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="250">
@@ -10989,11 +10992,11 @@
       </c>
       <c r="G250" s="8" t="str">
         <f>VLOOKUP(E250,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H250" s="8" t="str">
         <f>VLOOKUP(E250,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="251">
@@ -11045,11 +11048,11 @@
       </c>
       <c r="G252" s="8" t="str">
         <f>VLOOKUP(E252,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H252" s="8" t="str">
         <f>VLOOKUP(E252,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="253">
@@ -11073,11 +11076,11 @@
       </c>
       <c r="G253" s="8" t="str">
         <f>VLOOKUP(E253,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H253" s="8" t="str">
         <f>VLOOKUP(E253,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="254">
@@ -11101,11 +11104,11 @@
       </c>
       <c r="G254" s="8" t="str">
         <f>VLOOKUP(E254,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H254" s="8" t="str">
         <f>VLOOKUP(E254,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="255">
@@ -11129,11 +11132,11 @@
       </c>
       <c r="G255" s="8" t="str">
         <f>VLOOKUP(E255,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H255" s="8" t="str">
         <f>VLOOKUP(E255,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="256">
@@ -11157,11 +11160,11 @@
       </c>
       <c r="G256" s="8" t="str">
         <f>VLOOKUP(E256,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Thalassia testudinum</v>
       </c>
       <c r="H256" s="8" t="str">
         <f>VLOOKUP(E256,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="257">
@@ -11185,11 +11188,11 @@
       </c>
       <c r="G257" s="8" t="str">
         <f>VLOOKUP(E257,lookups_benthic!$2:$112,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Syringodium filiforme</v>
       </c>
       <c r="H257" s="8" t="str">
         <f>VLOOKUP(E257,lookups_benthic!$2:$112,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seagrass</v>
       </c>
     </row>
     <row r="258">
@@ -13669,7 +13672,9 @@
       <c r="C1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -13695,266 +13700,338 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>116</v>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -13962,10 +14039,13 @@
         <v>52</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -13976,40 +14056,52 @@
         <v>54</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>146</v>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>49</v>
+      <c r="B29" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>41</v>
+      <c r="B30" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31">
@@ -14020,18 +14112,24 @@
         <v>39</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>149</v>
+      <c r="D32" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -14042,18 +14140,24 @@
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -14064,29 +14168,38 @@
         <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -14097,18 +14210,24 @@
         <v>43</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>158</v>
+      <c r="D39" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -14119,7 +14238,10 @@
         <v>45</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -14130,7 +14252,10 @@
         <v>55</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -19030,34 +19155,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2">
@@ -19065,16 +19190,16 @@
         <v>90</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F2" s="25">
         <v>0.0182</v>
@@ -19089,24 +19214,24 @@
         <v>0.2</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3" s="25">
         <v>0.0282</v>
@@ -19121,24 +19246,24 @@
         <v>0.0</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" s="25">
         <v>0.0407</v>
@@ -19153,7 +19278,7 @@
         <v>0.2</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -19161,16 +19286,16 @@
         <v>82</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="25">
         <v>0.0237</v>
@@ -19185,24 +19310,24 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6" s="25">
         <v>0.004</v>
@@ -19217,24 +19342,24 @@
         <v>0.02</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F7" s="25">
         <v>0.0415</v>
@@ -19249,24 +19374,24 @@
         <v>0.03</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F8" s="25">
         <v>0.823</v>
@@ -19281,24 +19406,24 @@
         <v>0.45</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="25">
         <v>0.0059</v>
@@ -19313,24 +19438,24 @@
         <v>0.2</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F10" s="25">
         <v>1.0E-4</v>
@@ -19345,24 +19470,24 @@
         <v>0.73</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F11" s="25">
         <v>0.0267</v>
@@ -19373,24 +19498,24 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="25">
         <v>0.0144</v>
@@ -19405,24 +19530,24 @@
         <v>0.49</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="25">
         <v>0.0105</v>
@@ -19437,24 +19562,24 @@
         <v>0.78</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="25">
         <v>0.0282</v>
@@ -19469,24 +19594,24 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F15" s="25">
         <v>0.0234</v>
@@ -19501,24 +19626,24 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" s="25">
         <v>0.0204</v>
@@ -19529,24 +19654,24 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F17" s="25">
         <v>0.0562</v>
@@ -19561,24 +19686,24 @@
         <v>0.16</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F18" s="25">
         <v>0.0684</v>
@@ -19593,24 +19718,24 @@
         <v>0.19</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F19" s="25">
         <v>0.0224</v>
@@ -19625,24 +19750,24 @@
         <v>0.38</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F20" s="25">
         <v>0.0219</v>
@@ -19657,24 +19782,24 @@
         <v>0.2</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>244</v>
-      </c>
       <c r="E21" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F21" s="25">
         <v>0.0219</v>
@@ -19689,24 +19814,24 @@
         <v>0.4</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F22" s="25">
         <v>0.0074</v>
@@ -19721,24 +19846,24 @@
         <v>0.77</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" s="25">
         <v>0.0135</v>
@@ -19753,24 +19878,24 @@
         <v>0.74</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" s="25">
         <v>0.0175</v>
@@ -19785,7 +19910,7 @@
         <v>0.7</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
@@ -19793,16 +19918,16 @@
         <v>85</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="25">
         <v>0.0222</v>
@@ -19817,24 +19942,24 @@
         <v>0.43</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>259</v>
-      </c>
       <c r="E26" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F26" s="25">
         <v>0.022</v>
@@ -19849,7 +19974,7 @@
         <v>0.2</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
@@ -19857,16 +19982,16 @@
         <v>87</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F27" s="25">
         <v>0.022</v>
@@ -19881,24 +20006,24 @@
         <v>0.44</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28" s="25">
         <v>0.0318</v>
@@ -19913,24 +20038,24 @@
         <v>0.2</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F29" s="25">
         <v>0.0252</v>
@@ -19941,24 +20066,24 @@
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
       <c r="J29" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F30" s="25">
         <v>0.0148</v>
@@ -19973,24 +20098,24 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="24" t="s">
         <v>275</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>274</v>
       </c>
       <c r="F31" s="25">
         <v>0.0148</v>
@@ -20005,24 +20130,24 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="23" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F32" s="25">
         <v>0.0096</v>
@@ -20037,24 +20162,24 @@
         <v>0.2</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F33" s="25">
         <v>0.0437</v>
@@ -20069,24 +20194,24 @@
         <v>0.2</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B34" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>285</v>
-      </c>
       <c r="E34" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F34" s="25">
         <v>0.0661</v>
@@ -20101,24 +20226,24 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F35" s="25">
         <v>0.0111</v>
@@ -20133,24 +20258,24 @@
         <v>0.4</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" s="25">
         <v>0.0111</v>
@@ -20165,24 +20290,24 @@
         <v>0.3</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" s="25">
         <v>0.0065</v>
@@ -20193,24 +20318,24 @@
       <c r="H37" s="29"/>
       <c r="I37" s="26"/>
       <c r="J37" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F38" s="25">
         <v>0.0083</v>
@@ -20225,7 +20350,7 @@
         <v>0.3</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -20233,16 +20358,16 @@
         <v>78</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" s="25">
         <v>0.0115</v>
@@ -20257,24 +20382,24 @@
         <v>0.2</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F40" s="25">
         <v>0.0019</v>
@@ -20289,24 +20414,24 @@
         <v>0.63</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>308</v>
-      </c>
       <c r="E41" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F41" s="25">
         <v>9.0E-4</v>
@@ -20321,24 +20446,24 @@
         <v>0.8</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="25">
         <v>0.0167</v>
@@ -20353,24 +20478,24 @@
         <v>0.1</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F43" s="25">
         <v>0.0147</v>
@@ -20385,24 +20510,24 @@
         <v>0.49</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="23" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F44" s="25">
         <v>0.0126</v>
@@ -20417,7 +20542,7 @@
         <v>0.39</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
@@ -20425,16 +20550,16 @@
         <v>88</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F45" s="25">
         <v>0.0127</v>
@@ -20449,24 +20574,24 @@
         <v>0.41</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F46" s="25">
         <v>0.0199</v>
@@ -20481,24 +20606,24 @@
         <v>0.2</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F47" s="25">
         <v>0.0121</v>
@@ -20513,24 +20638,24 @@
         <v>0.48</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F48" s="25">
         <v>0.0194</v>
@@ -20545,24 +20670,24 @@
         <v>0.47</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F49" s="24">
         <v>0.00389</v>
@@ -20577,24 +20702,24 @@
         <v>0.45</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F50" s="25">
         <v>0.0127</v>
@@ -20609,24 +20734,24 @@
         <v>0.41</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" s="25">
         <v>0.01</v>
@@ -20641,7 +20766,7 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52">
@@ -20649,16 +20774,16 @@
         <v>80</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F52" s="25">
         <v>0.0093</v>
@@ -20673,24 +20798,24 @@
         <v>0.46</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F53" s="25">
         <v>0.01</v>
@@ -20705,24 +20830,24 @@
         <v>0.54</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F54" s="25">
         <v>0.0105</v>
@@ -20737,24 +20862,24 @@
         <v>0.2</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="23" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F55" s="25">
         <v>0.0102</v>
@@ -20769,24 +20894,24 @@
         <v>0.2</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F56" s="25">
         <v>0.0131</v>
@@ -20801,24 +20926,24 @@
         <v>0.44</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F57" s="25">
         <v>0.0174</v>
@@ -20833,24 +20958,24 @@
         <v>0.47</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="23" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F58" s="25">
         <v>0.0337</v>
@@ -20865,24 +20990,24 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="B59" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>365</v>
-      </c>
       <c r="E59" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F59" s="25">
         <v>0.0428</v>
@@ -20897,24 +21022,24 @@
         <v>0.33</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="23" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F60" s="25">
         <v>0.0159</v>
@@ -20929,7 +21054,7 @@
         <v>0.57</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61">
@@ -20937,16 +21062,16 @@
         <v>93</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>372</v>
-      </c>
       <c r="E61" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F61" s="25">
         <v>0.0115</v>
@@ -20961,24 +21086,24 @@
         <v>0.4</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F62" s="25">
         <v>0.0178</v>
@@ -20993,24 +21118,24 @@
         <v>0.4</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F63" s="25">
         <v>0.012</v>
@@ -21025,24 +21150,24 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="23" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F64" s="25">
         <v>0.203</v>
@@ -21057,24 +21182,24 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="23" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F65" s="25">
         <v>0.049</v>
@@ -21089,24 +21214,24 @@
         <v>0.25</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F66" s="25">
         <v>0.049</v>
@@ -21121,24 +21246,24 @@
         <v>0.2</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F67" s="25">
         <v>0.0162</v>
@@ -21153,7 +21278,7 @@
         <v>0.2</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68">
@@ -21161,16 +21286,16 @@
         <v>89</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="C68" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>396</v>
-      </c>
       <c r="E68" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F68" s="25">
         <v>0.0194</v>
@@ -21185,24 +21310,24 @@
         <v>0.72</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F69" s="25">
         <v>0.0151</v>
@@ -21217,24 +21342,24 @@
         <v>0.5</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F70" s="25">
         <v>0.0308</v>
@@ -21249,24 +21374,24 @@
         <v>0.03</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F71" s="25">
         <v>0.0429</v>
@@ -21281,7 +21406,7 @@
         <v>0.75</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -21289,16 +21414,16 @@
         <v>83</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F72" s="24">
         <v>0.01479</v>
@@ -21313,24 +21438,24 @@
         <v>0.3</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F73" s="25">
         <v>0.0295</v>
@@ -21345,24 +21470,24 @@
         <v>0.62</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F74" s="25">
         <v>0.0079</v>
@@ -21377,24 +21502,24 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F75" s="25">
         <v>0.0562</v>
@@ -21409,24 +21534,24 @@
         <v>0.28</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F76" s="25">
         <v>0.0239</v>
@@ -21441,24 +21566,24 @@
         <v>0.15</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F77" s="25">
         <v>0.0098</v>
@@ -21473,24 +21598,24 @@
         <v>0.37</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F78" s="25">
         <v>0.0094</v>
@@ -21505,24 +21630,24 @@
         <v>0.8</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F79" s="25">
         <v>0.0015</v>
@@ -21537,24 +21662,24 @@
         <v>0.5</v>
       </c>
       <c r="J79" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F80" s="25">
         <v>0.012</v>
@@ -21569,24 +21694,24 @@
         <v>0.56</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="23" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F81" s="25">
         <v>0.0405</v>
@@ -21601,24 +21726,24 @@
         <v>0.67</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="23" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F82" s="25">
         <v>0.0135</v>
@@ -21633,24 +21758,24 @@
         <v>0.1</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F83" s="25">
         <v>0.0344</v>
@@ -21661,24 +21786,24 @@
       <c r="H83" s="26"/>
       <c r="I83" s="26"/>
       <c r="J83" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F84" s="25">
         <v>0.0203</v>
@@ -21693,7 +21818,7 @@
         <v>0.0</v>
       </c>
       <c r="J84" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85">
@@ -21701,16 +21826,16 @@
         <v>94</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F85" s="25">
         <v>0.01</v>
@@ -21725,24 +21850,24 @@
         <v>0.53</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F86" s="25">
         <v>0.0115</v>
@@ -21757,24 +21882,24 @@
         <v>0.79</v>
       </c>
       <c r="J86" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F87" s="25">
         <v>0.0115</v>
@@ -21789,24 +21914,24 @@
         <v>0.5</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="23" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C88" s="24" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F88" s="25">
         <v>0.0153</v>
@@ -21821,24 +21946,24 @@
         <v>0.0</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D89" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="B89" s="24" t="s">
-        <v>463</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>461</v>
-      </c>
       <c r="E89" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F89" s="25">
         <v>0.0124</v>
@@ -21853,24 +21978,24 @@
         <v>0.0</v>
       </c>
       <c r="J89" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="23" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F90" s="25">
         <v>0.0155</v>
@@ -21885,24 +22010,24 @@
         <v>0.0</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="23" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F91" s="25">
         <v>0.0147</v>
@@ -21917,24 +22042,24 @@
         <v>0.0</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F92" s="25">
         <v>0.0335</v>
@@ -21949,24 +22074,24 @@
         <v>0.0</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="23" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F93" s="25">
         <v>0.025</v>
@@ -21981,24 +22106,24 @@
         <v>0.08</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F94" s="25">
         <v>0.0151</v>
@@ -22013,24 +22138,24 @@
         <v>0.55</v>
       </c>
       <c r="J94" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="23" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F95" s="25">
         <v>0.0121</v>
@@ -22041,7 +22166,7 @@
       <c r="H95" s="26"/>
       <c r="I95" s="26"/>
       <c r="J95" s="24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96">
@@ -22049,16 +22174,16 @@
         <v>86</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F96" s="25">
         <v>0.0046</v>
@@ -22073,24 +22198,24 @@
         <v>0.06</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F97" s="25">
         <v>0.0099</v>
@@ -22105,24 +22230,24 @@
         <v>0.0</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="23" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F98" s="25">
         <v>0.121</v>
@@ -22137,24 +22262,24 @@
         <v>0.0</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="23" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F99" s="25">
         <v>0.0156</v>
@@ -22169,24 +22294,24 @@
         <v>0.0</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F100" s="25">
         <v>0.025</v>
@@ -22201,24 +22326,24 @@
         <v>0.02</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F101" s="25">
         <v>0.005</v>
@@ -22233,24 +22358,24 @@
         <v>0.6</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="23" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F102" s="25">
         <v>0.0195</v>
@@ -22265,7 +22390,7 @@
         <v>0.1</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103">
@@ -22273,16 +22398,16 @@
         <v>91</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F103" s="25">
         <v>0.02</v>
@@ -22297,7 +22422,7 @@
         <v>0.0</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104">
@@ -22305,16 +22430,16 @@
         <v>81</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F104" s="25">
         <v>0.02</v>
@@ -22329,24 +22454,24 @@
         <v>0.2</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F105" s="25">
         <v>0.0148</v>
@@ -22361,24 +22486,24 @@
         <v>0.0</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="23" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F106" s="25">
         <v>0.0219</v>
@@ -22393,7 +22518,7 @@
         <v>0.3</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107">
@@ -22401,16 +22526,16 @@
         <v>84</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F107" s="25">
         <v>0.0166</v>
@@ -22421,7 +22546,7 @@
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
       <c r="J107" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108">
@@ -22429,16 +22554,16 @@
         <v>79</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F108" s="25">
         <v>0.0038</v>
@@ -22453,24 +22578,24 @@
         <v>0.72</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="30" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F109" s="25">
         <v>0.0089</v>
@@ -22485,24 +22610,24 @@
         <v>0.1</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="23" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F110" s="25">
         <v>0.017</v>
@@ -22517,7 +22642,7 @@
         <v>0.4</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111">
@@ -22525,16 +22650,16 @@
         <v>92</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F111" s="25">
         <v>0.0046</v>
@@ -22549,24 +22674,24 @@
         <v>0.06</v>
       </c>
       <c r="J111" s="24" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="30" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F112" s="25">
         <v>0.00589</v>
@@ -22581,24 +22706,24 @@
         <v>0.17</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="B113" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>531</v>
-      </c>
       <c r="E113" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F113" s="25">
         <v>0.00724</v>
@@ -22613,24 +22738,24 @@
         <v>0.3</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="30" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B114" s="24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F114" s="25">
         <v>0.02042</v>
@@ -22645,24 +22770,24 @@
         <v>0.1</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F115" s="25">
         <v>0.01023</v>
@@ -22677,24 +22802,24 @@
         <v>0.1</v>
       </c>
       <c r="J115" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F116" s="25">
         <v>0.01148</v>
@@ -22709,24 +22834,24 @@
         <v>0.0</v>
       </c>
       <c r="J116" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F117" s="25">
         <v>0.01047</v>
@@ -22741,24 +22866,24 @@
         <v>0.0</v>
       </c>
       <c r="J117" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="30" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F118" s="25">
         <v>0.02399</v>
@@ -22773,24 +22898,24 @@
         <v>0.1</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F119" s="32">
         <v>0.00851</v>
@@ -22805,7 +22930,7 @@
         <v>0.3</v>
       </c>
       <c r="J119" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
